--- a/pv-sheet.xlsx
+++ b/pv-sheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\clegh\Documents\GitHub\PVCompare\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BBDB113-EC3D-4886-A228-E054589E1C9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7B93E2E-1EC5-4D37-A312-28F82FF8EFC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25980" windowHeight="20880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9075" yWindow="4305" windowWidth="34950" windowHeight="16575" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -989,31 +989,10 @@
   <dimension ref="A1:S7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="26.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="26.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="38.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="27.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="25.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="5.140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="7" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="93" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="12" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7.85546875" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
